--- a/Master_Coding_Plan.xlsx
+++ b/Master_Coding_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n375596\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EE7285-F255-46B0-9BC0-3E990AAC107A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{449C713D-FCA7-8E41-BBAB-A80195C6C949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F2AF39B8-BCDA-4381-A069-DCA3CAFC157A}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$B$231</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="241">
   <si>
     <t xml:space="preserve">String to Integer (atoi)                              </t>
   </si>
@@ -786,6 +788,18 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Implemented Trie</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Strings</t>
   </si>
 </sst>
 </file>
@@ -1169,13 +1183,13 @@
       <selection activeCell="B49" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.7734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.09765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -1183,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>151</v>
       </c>
@@ -1191,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>468</v>
       </c>
@@ -1199,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>91</v>
       </c>
@@ -1207,7 +1221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>165</v>
       </c>
@@ -1215,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1223,7 +1237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1231,7 +1245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>271</v>
       </c>
@@ -1239,7 +1253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1169</v>
       </c>
@@ -1247,7 +1261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>71</v>
       </c>
@@ -1255,7 +1269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>556</v>
       </c>
@@ -1263,7 +1277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1234</v>
       </c>
@@ -1271,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>161</v>
       </c>
@@ -1279,7 +1293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43</v>
       </c>
@@ -1287,7 +1301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>722</v>
       </c>
@@ -1295,7 +1309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>385</v>
       </c>
@@ -1303,7 +1317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1177</v>
       </c>
@@ -1311,7 +1325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>93</v>
       </c>
@@ -1319,7 +1333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>522</v>
       </c>
@@ -1327,7 +1341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>678</v>
       </c>
@@ -1335,7 +1349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1343,7 +1357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>227</v>
       </c>
@@ -1351,7 +1365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>842</v>
       </c>
@@ -1359,7 +1373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>186</v>
       </c>
@@ -1367,7 +1381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>616</v>
       </c>
@@ -1375,7 +1389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>555</v>
       </c>
@@ -1383,7 +1397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>831</v>
       </c>
@@ -1391,7 +1405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>848</v>
       </c>
@@ -1399,7 +1413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>681</v>
       </c>
@@ -1407,7 +1421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1181</v>
       </c>
@@ -1415,7 +1429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1297</v>
       </c>
@@ -1423,7 +1437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>17</v>
       </c>
@@ -1431,7 +1445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>966</v>
       </c>
@@ -1439,7 +1453,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>767</v>
       </c>
@@ -1447,7 +1461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1138</v>
       </c>
@@ -1455,7 +1469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1081</v>
       </c>
@@ -1463,7 +1477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>816</v>
       </c>
@@ -1471,7 +1485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>809</v>
       </c>
@@ -1479,7 +1493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>583</v>
       </c>
@@ -1487,7 +1501,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>916</v>
       </c>
@@ -1495,7 +1509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>536</v>
       </c>
@@ -1503,7 +1517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1156</v>
       </c>
@@ -1511,7 +1525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>159</v>
       </c>
@@ -1519,7 +1533,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>833</v>
       </c>
@@ -1527,7 +1541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>539</v>
       </c>
@@ -1535,7 +1549,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>249</v>
       </c>
@@ -1543,7 +1557,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>49</v>
       </c>
@@ -1551,7 +1565,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>12</v>
       </c>
@@ -1559,7 +1573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1062</v>
       </c>
@@ -1567,7 +1581,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1003</v>
       </c>
@@ -1575,7 +1589,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>1268</v>
       </c>
@@ -1583,7 +1597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>1233</v>
       </c>
@@ -1591,7 +1605,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>1023</v>
       </c>
@@ -1599,7 +1613,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>553</v>
       </c>
@@ -1607,7 +1621,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>635</v>
       </c>
@@ -1615,7 +1629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>609</v>
       </c>
@@ -1623,7 +1637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>1247</v>
       </c>
@@ -1631,7 +1645,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>856</v>
       </c>
@@ -1639,7 +1653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>22</v>
       </c>
@@ -1647,7 +1661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>647</v>
       </c>
@@ -1655,7 +1669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1016</v>
       </c>
@@ -1663,7 +1677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1249</v>
       </c>
@@ -1671,7 +1685,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>791</v>
       </c>
@@ -1679,7 +1693,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>537</v>
       </c>
@@ -1687,7 +1701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1100</v>
       </c>
@@ -1695,7 +1709,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>890</v>
       </c>
@@ -1703,7 +1717,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>544</v>
       </c>
@@ -1711,7 +1725,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>444</v>
       </c>
@@ -1719,7 +1733,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>133</v>
       </c>
@@ -1727,7 +1741,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>310</v>
       </c>
@@ -1735,7 +1749,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>332</v>
       </c>
@@ -1743,7 +1757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>1129</v>
       </c>
@@ -1751,7 +1765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>210</v>
       </c>
@@ -1759,7 +1773,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>207</v>
       </c>
@@ -1767,7 +1781,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>261</v>
       </c>
@@ -1775,7 +1789,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>1162</v>
       </c>
@@ -1783,7 +1797,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>990</v>
       </c>
@@ -1791,7 +1805,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>743</v>
       </c>
@@ -1799,7 +1813,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>1059</v>
       </c>
@@ -1807,7 +1821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>785</v>
       </c>
@@ -1815,7 +1829,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>802</v>
       </c>
@@ -1823,7 +1837,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>1102</v>
       </c>
@@ -1831,7 +1845,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>399</v>
       </c>
@@ -1839,7 +1853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>323</v>
       </c>
@@ -1847,7 +1861,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>684</v>
       </c>
@@ -1855,7 +1869,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>1135</v>
       </c>
@@ -1863,7 +1877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>1267</v>
       </c>
@@ -1871,7 +1885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>1306</v>
       </c>
@@ -1879,7 +1893,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>841</v>
       </c>
@@ -1887,7 +1901,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>1043</v>
       </c>
@@ -1898,7 +1912,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>959</v>
       </c>
@@ -1906,7 +1920,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>1161</v>
       </c>
@@ -1914,7 +1928,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>1042</v>
       </c>
@@ -1922,7 +1936,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>997</v>
       </c>
@@ -1933,7 +1947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>306</v>
       </c>
@@ -1941,7 +1955,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>79</v>
       </c>
@@ -1949,7 +1963,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>93</v>
       </c>
@@ -1957,7 +1971,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>211</v>
       </c>
@@ -1965,7 +1979,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>60</v>
       </c>
@@ -1973,7 +1987,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>267</v>
       </c>
@@ -1981,7 +1995,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>842</v>
       </c>
@@ -1989,7 +2003,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>1215</v>
       </c>
@@ -1997,7 +2011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>1239</v>
       </c>
@@ -2005,7 +2019,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>47</v>
       </c>
@@ -2013,7 +2027,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>131</v>
       </c>
@@ -2021,7 +2035,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>17</v>
       </c>
@@ -2029,7 +2043,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>90</v>
       </c>
@@ -2037,7 +2051,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>40</v>
       </c>
@@ -2045,7 +2059,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>254</v>
       </c>
@@ -2053,7 +2067,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>351</v>
       </c>
@@ -2061,7 +2075,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>89</v>
       </c>
@@ -2069,7 +2083,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>357</v>
       </c>
@@ -2077,7 +2091,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>294</v>
       </c>
@@ -2085,7 +2099,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>320</v>
       </c>
@@ -2093,7 +2107,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>77</v>
       </c>
@@ -2101,7 +2115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>1291</v>
       </c>
@@ -2109,7 +2123,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>39</v>
       </c>
@@ -2117,7 +2131,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>1066</v>
       </c>
@@ -2125,7 +2139,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>216</v>
       </c>
@@ -2133,7 +2147,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>526</v>
       </c>
@@ -2141,7 +2155,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>78</v>
       </c>
@@ -2149,7 +2163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>22</v>
       </c>
@@ -2157,7 +2171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>46</v>
       </c>
@@ -2165,7 +2179,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>1258</v>
       </c>
@@ -2173,7 +2187,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>1087</v>
       </c>
@@ -2181,7 +2195,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>1219</v>
       </c>
@@ -2189,7 +2203,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1286</v>
       </c>
@@ -2197,7 +2211,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1079</v>
       </c>
@@ -2205,7 +2219,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>401</v>
       </c>
@@ -2213,7 +2227,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>784</v>
       </c>
@@ -2221,7 +2235,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>91</v>
       </c>
@@ -2229,7 +2243,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>523</v>
       </c>
@@ -2237,7 +2251,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1191</v>
       </c>
@@ -2245,7 +2259,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>464</v>
       </c>
@@ -2256,7 +2270,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>5</v>
       </c>
@@ -2264,7 +2278,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>152</v>
       </c>
@@ -2272,7 +2286,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>418</v>
       </c>
@@ -2280,7 +2294,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>322</v>
       </c>
@@ -2288,7 +2302,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>576</v>
       </c>
@@ -2296,7 +2310,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>837</v>
       </c>
@@ -2304,7 +2318,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>63</v>
       </c>
@@ -2312,7 +2326,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>673</v>
       </c>
@@ -2320,7 +2334,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>467</v>
       </c>
@@ -2328,7 +2342,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>221</v>
       </c>
@@ -2336,7 +2350,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1186</v>
       </c>
@@ -2344,7 +2358,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>304</v>
       </c>
@@ -2352,7 +2366,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>368</v>
       </c>
@@ -2360,7 +2374,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>213</v>
       </c>
@@ -2368,7 +2382,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>898</v>
       </c>
@@ -2376,7 +2390,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>787</v>
       </c>
@@ -2384,7 +2398,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>801</v>
       </c>
@@ -2392,7 +2406,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>790</v>
       </c>
@@ -2400,7 +2414,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>139</v>
       </c>
@@ -2408,7 +2422,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>95</v>
       </c>
@@ -2416,7 +2430,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>264</v>
       </c>
@@ -2424,7 +2438,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>967</v>
       </c>
@@ -2432,7 +2446,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>376</v>
       </c>
@@ -2440,7 +2454,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>808</v>
       </c>
@@ -2448,7 +2462,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>375</v>
       </c>
@@ -2456,7 +2470,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>1058</v>
       </c>
@@ -2464,7 +2478,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>1218</v>
       </c>
@@ -2472,7 +2486,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>474</v>
       </c>
@@ -2480,7 +2494,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>120</v>
       </c>
@@ -2488,7 +2502,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>300</v>
       </c>
@@ -2496,7 +2510,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1262</v>
       </c>
@@ -2504,7 +2518,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>416</v>
       </c>
@@ -2512,7 +2526,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1049</v>
       </c>
@@ -2520,7 +2534,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>935</v>
       </c>
@@ -2528,7 +2542,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>1223</v>
       </c>
@@ -2536,7 +2550,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>279</v>
       </c>
@@ -2544,7 +2558,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>377</v>
       </c>
@@ -2552,7 +2566,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>698</v>
       </c>
@@ -2560,7 +2574,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>361</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>1230</v>
       </c>
@@ -2576,7 +2590,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>764</v>
       </c>
@@ -2584,7 +2598,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>309</v>
       </c>
@@ -2592,7 +2606,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>1039</v>
       </c>
@@ -2600,7 +2614,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>1139</v>
       </c>
@@ -2608,7 +2622,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>978</v>
       </c>
@@ -2616,7 +2630,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>494</v>
       </c>
@@ -2624,7 +2638,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>838</v>
       </c>
@@ -2635,7 +2649,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>688</v>
       </c>
@@ -2643,7 +2657,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>351</v>
       </c>
@@ -2651,7 +2665,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>486</v>
       </c>
@@ -2659,7 +2673,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>873</v>
       </c>
@@ -2667,7 +2681,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>740</v>
       </c>
@@ -2675,7 +2689,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>357</v>
       </c>
@@ -2683,7 +2697,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>813</v>
       </c>
@@ -2691,7 +2705,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>1024</v>
       </c>
@@ -2699,7 +2713,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>650</v>
       </c>
@@ -2710,7 +2724,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>718</v>
       </c>
@@ -2721,7 +2735,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>96</v>
       </c>
@@ -2729,7 +2743,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>343</v>
       </c>
@@ -2740,7 +2754,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>1155</v>
       </c>
@@ -2748,7 +2762,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>516</v>
       </c>
@@ -2759,7 +2773,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>64</v>
       </c>
@@ -2767,7 +2781,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>646</v>
       </c>
@@ -2775,7 +2789,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>638</v>
       </c>
@@ -2783,7 +2797,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>62</v>
       </c>
@@ -2791,7 +2805,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>651</v>
       </c>
@@ -2799,7 +2813,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>1048</v>
       </c>
@@ -2807,7 +2821,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>714</v>
       </c>
@@ -2815,7 +2829,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>1027</v>
       </c>
@@ -2823,7 +2837,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>1066</v>
       </c>
@@ -2831,7 +2845,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>712</v>
       </c>
@@ -2839,7 +2853,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>413</v>
       </c>
@@ -2847,7 +2861,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>1055</v>
       </c>
@@ -2855,7 +2869,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>1105</v>
       </c>
@@ -2863,7 +2877,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>1143</v>
       </c>
@@ -2871,7 +2885,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>983</v>
       </c>
@@ -2879,7 +2893,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>647</v>
       </c>
@@ -2887,7 +2901,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>1227</v>
       </c>
@@ -2895,7 +2909,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>931</v>
       </c>
@@ -2903,7 +2917,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>1140</v>
       </c>
@@ -2911,7 +2925,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>1273</v>
       </c>
@@ -2919,7 +2933,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>877</v>
       </c>
@@ -2927,7 +2941,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>1130</v>
       </c>
@@ -2935,7 +2949,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>750</v>
       </c>
@@ -2943,7 +2957,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>338</v>
       </c>
@@ -2951,7 +2965,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>1277</v>
       </c>
@@ -2973,19 +2987,19 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.171875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.96484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>229</v>
       </c>
@@ -2999,7 +3013,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1306</v>
       </c>
@@ -3013,7 +3027,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1297</v>
       </c>
@@ -3027,7 +3041,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1291</v>
       </c>
@@ -3041,7 +3055,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1286</v>
       </c>
@@ -3055,47 +3069,68 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1277</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1273</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1268</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1267</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1262</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1258</v>
       </c>
@@ -3103,23 +3138,32 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1249</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1247</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1239</v>
       </c>
@@ -3127,7 +3171,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1234</v>
       </c>
@@ -3135,7 +3179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1233</v>
       </c>
@@ -3143,7 +3187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1230</v>
       </c>
@@ -3151,7 +3195,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1227</v>
       </c>
@@ -3159,7 +3203,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1223</v>
       </c>
@@ -3167,7 +3211,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1219</v>
       </c>
@@ -3175,7 +3219,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1218</v>
       </c>
@@ -3183,7 +3227,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1215</v>
       </c>
@@ -3191,7 +3235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1191</v>
       </c>
@@ -3199,7 +3243,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1186</v>
       </c>
@@ -3207,7 +3251,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1181</v>
       </c>
@@ -3215,7 +3259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1177</v>
       </c>
@@ -3223,7 +3267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1169</v>
       </c>
@@ -3231,7 +3275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1162</v>
       </c>
@@ -3239,7 +3283,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1161</v>
       </c>
@@ -3247,7 +3291,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1156</v>
       </c>
@@ -3255,7 +3299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1155</v>
       </c>
@@ -3263,7 +3307,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1143</v>
       </c>
@@ -3271,7 +3315,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1140</v>
       </c>
@@ -3279,7 +3323,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1139</v>
       </c>
@@ -3287,7 +3331,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1138</v>
       </c>
@@ -3295,7 +3339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1135</v>
       </c>
@@ -3303,7 +3347,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1130</v>
       </c>
@@ -3311,7 +3355,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1129</v>
       </c>
@@ -3319,7 +3363,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1105</v>
       </c>
@@ -3327,7 +3371,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1102</v>
       </c>
@@ -3335,7 +3379,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1100</v>
       </c>
@@ -3343,7 +3387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1087</v>
       </c>
@@ -3351,7 +3395,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1081</v>
       </c>
@@ -3359,7 +3403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1079</v>
       </c>
@@ -3367,7 +3411,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1066</v>
       </c>
@@ -3375,7 +3419,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1062</v>
       </c>
@@ -3383,7 +3427,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>1059</v>
       </c>
@@ -3391,7 +3435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>1058</v>
       </c>
@@ -3399,7 +3443,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>1055</v>
       </c>
@@ -3407,7 +3451,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>1049</v>
       </c>
@@ -3415,7 +3459,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1048</v>
       </c>
@@ -3423,7 +3467,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1043</v>
       </c>
@@ -3431,7 +3475,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>1042</v>
       </c>
@@ -3439,7 +3483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>1039</v>
       </c>
@@ -3447,7 +3491,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1027</v>
       </c>
@@ -3455,7 +3499,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>1024</v>
       </c>
@@ -3463,7 +3507,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1023</v>
       </c>
@@ -3471,7 +3515,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1016</v>
       </c>
@@ -3479,7 +3523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>1003</v>
       </c>
@@ -3487,7 +3531,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>997</v>
       </c>
@@ -3495,7 +3539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>990</v>
       </c>
@@ -3503,7 +3547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>983</v>
       </c>
@@ -3511,7 +3555,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>978</v>
       </c>
@@ -3519,7 +3563,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>967</v>
       </c>
@@ -3527,7 +3571,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>966</v>
       </c>
@@ -3535,7 +3579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>959</v>
       </c>
@@ -3543,7 +3587,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>935</v>
       </c>
@@ -3551,7 +3595,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>931</v>
       </c>
@@ -3559,7 +3603,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>916</v>
       </c>
@@ -3567,7 +3611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>898</v>
       </c>
@@ -3575,7 +3619,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>890</v>
       </c>
@@ -3583,7 +3627,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>877</v>
       </c>
@@ -3591,7 +3635,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>873</v>
       </c>
@@ -3599,7 +3643,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>856</v>
       </c>
@@ -3607,7 +3651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>848</v>
       </c>
@@ -3615,7 +3659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>842</v>
       </c>
@@ -3623,7 +3667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>841</v>
       </c>
@@ -3631,7 +3675,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>838</v>
       </c>
@@ -3639,7 +3683,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>837</v>
       </c>
@@ -3647,7 +3691,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>833</v>
       </c>
@@ -3655,7 +3699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>831</v>
       </c>
@@ -3663,7 +3707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>816</v>
       </c>
@@ -3671,7 +3715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>813</v>
       </c>
@@ -3679,7 +3723,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>809</v>
       </c>
@@ -3687,7 +3731,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>808</v>
       </c>
@@ -3695,7 +3739,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>802</v>
       </c>
@@ -3703,7 +3747,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>801</v>
       </c>
@@ -3711,7 +3755,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>791</v>
       </c>
@@ -3719,7 +3763,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>790</v>
       </c>
@@ -3727,7 +3771,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>787</v>
       </c>
@@ -3735,7 +3779,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>785</v>
       </c>
@@ -3743,7 +3787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>784</v>
       </c>
@@ -3754,7 +3798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>767</v>
       </c>
@@ -3762,7 +3806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>764</v>
       </c>
@@ -3770,7 +3814,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>750</v>
       </c>
@@ -3778,7 +3822,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>743</v>
       </c>
@@ -3789,7 +3833,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>740</v>
       </c>
@@ -3797,7 +3841,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>722</v>
       </c>
@@ -3805,7 +3849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>718</v>
       </c>
@@ -3813,7 +3857,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>714</v>
       </c>
@@ -3821,7 +3865,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>712</v>
       </c>
@@ -3829,7 +3873,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>698</v>
       </c>
@@ -3837,7 +3881,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>688</v>
       </c>
@@ -3845,7 +3889,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>684</v>
       </c>
@@ -3853,7 +3897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>681</v>
       </c>
@@ -3861,7 +3905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>678</v>
       </c>
@@ -3869,7 +3913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>673</v>
       </c>
@@ -3877,7 +3921,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>651</v>
       </c>
@@ -3885,7 +3929,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>650</v>
       </c>
@@ -3893,7 +3937,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>647</v>
       </c>
@@ -3901,7 +3945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>646</v>
       </c>
@@ -3909,7 +3953,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>638</v>
       </c>
@@ -3917,7 +3961,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>635</v>
       </c>
@@ -3925,7 +3969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>616</v>
       </c>
@@ -3933,7 +3977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>609</v>
       </c>
@@ -3941,7 +3985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>583</v>
       </c>
@@ -3949,7 +3993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>576</v>
       </c>
@@ -3957,7 +4001,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>556</v>
       </c>
@@ -3965,7 +4009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>555</v>
       </c>
@@ -3973,7 +4017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>553</v>
       </c>
@@ -3981,7 +4025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>544</v>
       </c>
@@ -3989,7 +4033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>539</v>
       </c>
@@ -3997,7 +4041,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>537</v>
       </c>
@@ -4005,7 +4049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>536</v>
       </c>
@@ -4013,7 +4057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>526</v>
       </c>
@@ -4021,7 +4065,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>523</v>
       </c>
@@ -4029,7 +4073,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>522</v>
       </c>
@@ -4037,7 +4081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>516</v>
       </c>
@@ -4045,7 +4089,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>494</v>
       </c>
@@ -4053,7 +4097,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>486</v>
       </c>
@@ -4061,7 +4105,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>474</v>
       </c>
@@ -4069,7 +4113,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>468</v>
       </c>
@@ -4077,7 +4121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>467</v>
       </c>
@@ -4085,7 +4129,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>464</v>
       </c>
@@ -4093,7 +4137,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>444</v>
       </c>
@@ -4101,7 +4145,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>418</v>
       </c>
@@ -4112,7 +4156,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>416</v>
       </c>
@@ -4120,7 +4164,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>413</v>
       </c>
@@ -4128,7 +4172,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>401</v>
       </c>
@@ -4136,7 +4180,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>399</v>
       </c>
@@ -4144,7 +4188,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>385</v>
       </c>
@@ -4152,7 +4196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>377</v>
       </c>
@@ -4160,7 +4204,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>376</v>
       </c>
@@ -4168,7 +4212,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>375</v>
       </c>
@@ -4176,7 +4220,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>368</v>
       </c>
@@ -4184,7 +4228,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>361</v>
       </c>
@@ -4192,7 +4236,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>357</v>
       </c>
@@ -4200,7 +4244,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>351</v>
       </c>
@@ -4208,7 +4252,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>343</v>
       </c>
@@ -4216,7 +4260,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>338</v>
       </c>
@@ -4224,7 +4268,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>332</v>
       </c>
@@ -4232,7 +4276,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>323</v>
       </c>
@@ -4240,7 +4284,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>322</v>
       </c>
@@ -4248,7 +4292,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>320</v>
       </c>
@@ -4256,7 +4300,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>310</v>
       </c>
@@ -4264,7 +4308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>309</v>
       </c>
@@ -4272,7 +4316,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>306</v>
       </c>
@@ -4280,7 +4324,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>304</v>
       </c>
@@ -4288,7 +4332,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>300</v>
       </c>
@@ -4296,7 +4340,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>294</v>
       </c>
@@ -4304,7 +4348,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>279</v>
       </c>
@@ -4312,7 +4356,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>271</v>
       </c>
@@ -4320,7 +4364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>267</v>
       </c>
@@ -4328,7 +4372,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>264</v>
       </c>
@@ -4336,7 +4380,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>261</v>
       </c>
@@ -4344,7 +4388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>254</v>
       </c>
@@ -4352,7 +4396,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>249</v>
       </c>
@@ -4360,7 +4404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>227</v>
       </c>
@@ -4368,7 +4412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>221</v>
       </c>
@@ -4376,7 +4420,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>216</v>
       </c>
@@ -4384,7 +4428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>213</v>
       </c>
@@ -4392,7 +4436,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>211</v>
       </c>
@@ -4400,7 +4444,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>210</v>
       </c>
@@ -4408,7 +4452,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>207</v>
       </c>
@@ -4416,7 +4460,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>186</v>
       </c>
@@ -4424,7 +4468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>165</v>
       </c>
@@ -4432,7 +4476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>161</v>
       </c>
@@ -4440,7 +4484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>159</v>
       </c>
@@ -4448,7 +4492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>152</v>
       </c>
@@ -4456,7 +4500,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>151</v>
       </c>
@@ -4464,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>139</v>
       </c>
@@ -4472,7 +4516,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>133</v>
       </c>
@@ -4480,7 +4524,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>131</v>
       </c>
@@ -4491,7 +4535,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>120</v>
       </c>
@@ -4499,7 +4543,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>96</v>
       </c>
@@ -4507,7 +4551,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>95</v>
       </c>
@@ -4515,7 +4559,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>93</v>
       </c>
@@ -4523,7 +4567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>91</v>
       </c>
@@ -4531,7 +4575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>90</v>
       </c>
@@ -4539,7 +4583,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>89</v>
       </c>
@@ -4547,7 +4591,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>79</v>
       </c>
@@ -4555,7 +4599,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>78</v>
       </c>
@@ -4566,7 +4610,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>77</v>
       </c>
@@ -4577,7 +4621,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>71</v>
       </c>
@@ -4585,7 +4629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>64</v>
       </c>
@@ -4596,7 +4640,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>63</v>
       </c>
@@ -4604,7 +4648,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>62</v>
       </c>
@@ -4615,7 +4659,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>60</v>
       </c>
@@ -4623,7 +4667,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>49</v>
       </c>
@@ -4631,7 +4675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>47</v>
       </c>
@@ -4639,7 +4683,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>46</v>
       </c>
@@ -4647,7 +4691,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43</v>
       </c>
@@ -4655,7 +4699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>40</v>
       </c>
@@ -4663,7 +4707,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>39</v>
       </c>
@@ -4671,7 +4715,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>22</v>
       </c>
@@ -4679,7 +4723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>17</v>
       </c>
@@ -4687,7 +4731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>12</v>
       </c>
@@ -4695,7 +4739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>8</v>
       </c>
@@ -4703,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>6</v>
       </c>
@@ -4711,7 +4755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>5</v>
       </c>
@@ -4719,7 +4763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>3</v>
       </c>
@@ -4727,63 +4771,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
       <c r="B219"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
       <c r="B221"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
       <c r="B223"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225"/>
       <c r="B225"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227"/>
       <c r="B227"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229"/>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230"/>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
